--- a/biology/Zoologie/Conidae/Conidae.xlsx
+++ b/biology/Zoologie/Conidae/Conidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Conidae sont une famille d'escargots marins. Elle a été créée par John Fleming (1785-1857) en 1822[1]. Cette famille comprend de très nombreux genres mais est principalement dominée par le genre Conus avec actuellement 626 espèces vivantes. Le nom vernaculaire ou commun de cette famille est Cône.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Conidae sont une famille d'escargots marins. Elle a été créée par John Fleming (1785-1857) en 1822. Cette famille comprend de très nombreux genres mais est principalement dominée par le genre Conus avec actuellement 626 espèces vivantes. Le nom vernaculaire ou commun de cette famille est Cône.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme leur nom l’indique, ces gastéropodes possèdent une coquille conique dont l’aspect ainsi que les couleurs sont très variables. Ils sont de taille moyenne à grande et présentent souvent des ornementations spectaculaires sur leur coquille pour laquelle ils sont recherchés. Ils sont également dangereux. La grande majorité se trouve dans les mers chaudes, mais on en rencontre aussi dans des eaux tempérées[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme leur nom l’indique, ces gastéropodes possèdent une coquille conique dont l’aspect ainsi que les couleurs sont très variables. Ils sont de taille moyenne à grande et présentent souvent des ornementations spectaculaires sur leur coquille pour laquelle ils sont recherchés. Ils sont également dangereux. La grande majorité se trouve dans les mers chaudes, mais on en rencontre aussi dans des eaux tempérées. 
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Régime alimentaire et venin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont le plus souvent nocturnes, et tous sont des prédateurs carnivores et venimeux. Certains se nourrissent de vers, d’autres de mollusques et/ou de poissons. 
-Ils contiennent une glande sécrétant une neurotoxine reliée à une dent radulaire en forme de harpon, dont ils se servent pour chasser leurs proies à distance, la proie étant ainsi instantanément neutralisée. Les cônes vivants doivent donc être manipulés avec précaution ou pas manipulés du tout si l'on ne connaît pas l'espèce. Généralement, les cônes de petite taille ont une piqûre guère plus douloureuse que celle d'une abeille mais le venin de certaines grandes espèces tropicales piscivores peut être fatal à l'homme : composé d'un inhibiteur des récepteurs nicotiniques à l'acétylcholine, il entraîne la paralysie (notamment des muscles respiratoires), puis la mort, dans 70 % des cas humains, en moins de deux heures[4]. Certaines conotoxines affectent les voies sensitives, avec un puissant effet analgésiant dont l'utilisation médicale est actuellement à l'étude. Leur efficacité est, en effet, supérieure à celle de la morphine sans en avoir les effets secondaires et sans accoutumance.( R. Clark, Université du Queensland, Brisbane )
-Les cônes pouvant mettre en danger la vie d'un humain[5] sont notamment Conus geographus, C. textile, C.tulipa, C.aulicus et C. striatus[6].
+Ils contiennent une glande sécrétant une neurotoxine reliée à une dent radulaire en forme de harpon, dont ils se servent pour chasser leurs proies à distance, la proie étant ainsi instantanément neutralisée. Les cônes vivants doivent donc être manipulés avec précaution ou pas manipulés du tout si l'on ne connaît pas l'espèce. Généralement, les cônes de petite taille ont une piqûre guère plus douloureuse que celle d'une abeille mais le venin de certaines grandes espèces tropicales piscivores peut être fatal à l'homme : composé d'un inhibiteur des récepteurs nicotiniques à l'acétylcholine, il entraîne la paralysie (notamment des muscles respiratoires), puis la mort, dans 70 % des cas humains, en moins de deux heures. Certaines conotoxines affectent les voies sensitives, avec un puissant effet analgésiant dont l'utilisation médicale est actuellement à l'étude. Leur efficacité est, en effet, supérieure à celle de la morphine sans en avoir les effets secondaires et sans accoutumance.( R. Clark, Université du Queensland, Brisbane )
+Les cônes pouvant mettre en danger la vie d'un humain sont notamment Conus geographus, C. textile, C.tulipa, C.aulicus et C. striatus.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Conidae comprend 145 genres validés qui regroupent à l'heure actuelle 2323 espèces différentes de cônes, selon World Register of Marine Species                               (25 août 2013)[1]. Cette famille est assez typique des eaux chaudes des mers et des océans tropicaux. Cependant, quelques espèces sont adaptées à des environnements tempérés tels que la côte sud africaine autour du Cap de Bonne-Espérance ou les eaux plus froides de Californie du sud.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Conidae comprend 145 genres validés qui regroupent à l'heure actuelle 2323 espèces différentes de cônes, selon World Register of Marine Species                               (25 août 2013). Cette famille est assez typique des eaux chaudes des mers et des océans tropicaux. Cependant, quelques espèces sont adaptées à des environnements tempérés tels que la côte sud africaine autour du Cap de Bonne-Espérance ou les eaux plus froides de Californie du sud.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 août 2013)[1], il y a actuellement 6 sous-familles et 145 genres validés :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 août 2013), il y a actuellement 6 sous-familles et 145 genres validés :
 Clathurellinae H. Adams &amp; A. Adams, 1858
 Abyssothauma Sysoev, 1996
 Anarithma Iredale, 1916
